--- a/dijkstra.xlsx
+++ b/dijkstra.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shrey\Desktop\Projects\PDC-Project\results\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shrey\Desktop\Projects\PDC-Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CE04FED-9E20-47D9-BB0D-E580844384D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAB3537A-7DA3-43C6-8EA5-8708B81AF0F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -903,10 +903,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H17"/>
+  <dimension ref="A1:I17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -916,7 +916,7 @@
     <col min="7" max="8" width="17.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -942,7 +942,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>100</v>
       </c>
@@ -968,7 +968,7 @@
         <v>1654</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>250</v>
       </c>
@@ -994,7 +994,7 @@
         <v>1426</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>500</v>
       </c>
@@ -1020,7 +1020,7 @@
         <v>11705</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>1000</v>
       </c>
@@ -1046,7 +1046,7 @@
         <v>18491</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>1500</v>
       </c>
@@ -1072,7 +1072,7 @@
         <v>21366</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>2000</v>
       </c>
@@ -1098,7 +1098,7 @@
         <v>50155</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>2500</v>
       </c>
@@ -1124,7 +1124,7 @@
         <v>33433</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>3000</v>
       </c>
@@ -1150,7 +1150,7 @@
         <v>25836</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>3500</v>
       </c>
@@ -1176,7 +1176,7 @@
         <v>37732</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>4000</v>
       </c>
@@ -1202,7 +1202,7 @@
         <v>44701</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>4500</v>
       </c>
@@ -1228,7 +1228,7 @@
         <v>49806</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>5000</v>
       </c>
@@ -1254,7 +1254,7 @@
         <v>54144</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>8</v>
       </c>
@@ -1287,7 +1287,7 @@
         <v>29204.083333333332</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>9</v>
       </c>
@@ -1315,8 +1315,12 @@
         <f>B15/H15</f>
         <v>2.0100242831339226</v>
       </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I16">
+        <f>AVERAGE(C16:H16)</f>
+        <v>2.69922239075404</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>10</v>
       </c>
@@ -1343,6 +1347,10 @@
       <c r="H17">
         <f>(H16/12)*100</f>
         <v>16.750202359449354</v>
+      </c>
+      <c r="I17">
+        <f>AVERAGE(C17:H17)</f>
+        <v>49.684216247144199</v>
       </c>
     </row>
   </sheetData>
